--- a/Code/Results/Cases/Case_3_87/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_87/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.07400245086563</v>
+        <v>6.917169992021162</v>
       </c>
       <c r="C2">
-        <v>6.262502763809767</v>
+        <v>6.806290309034241</v>
       </c>
       <c r="D2">
-        <v>5.015128458949987</v>
+        <v>4.560284049730241</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.26087034337075</v>
+        <v>21.68750424701895</v>
       </c>
       <c r="G2">
-        <v>19.50155103206836</v>
+        <v>24.26825617323693</v>
       </c>
       <c r="H2">
-        <v>8.146066056720793</v>
+        <v>13.19785320135738</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.06185067608708</v>
+        <v>8.381888689455606</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.78897223330418</v>
+        <v>19.97288045019196</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.98112672426091</v>
+        <v>19.48192466483431</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.4726138130976</v>
+        <v>6.639050935440197</v>
       </c>
       <c r="C3">
-        <v>6.257590755868411</v>
+        <v>6.795415270960925</v>
       </c>
       <c r="D3">
-        <v>4.816790817329591</v>
+        <v>4.478172084062789</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.99036934594618</v>
+        <v>21.71259478648555</v>
       </c>
       <c r="G3">
-        <v>19.19606163990361</v>
+        <v>24.30719758079749</v>
       </c>
       <c r="H3">
-        <v>8.214041538027876</v>
+        <v>13.24037575981718</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.69340985938314</v>
+        <v>8.215348006471942</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.50817971495102</v>
+        <v>19.37585180230192</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.00604963480825</v>
+        <v>19.54673329719562</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.08330364642957</v>
+        <v>6.462751919658459</v>
       </c>
       <c r="C4">
-        <v>6.25468767582528</v>
+        <v>6.789050318798203</v>
       </c>
       <c r="D4">
-        <v>4.689712846267679</v>
+        <v>4.426248764577132</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15.83835601167352</v>
+        <v>21.73385448644175</v>
       </c>
       <c r="G4">
-        <v>19.03249002914806</v>
+        <v>24.33940674518097</v>
       </c>
       <c r="H4">
-        <v>8.260656185237799</v>
+        <v>13.26848876668649</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.45779933142251</v>
+        <v>8.110137913184863</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.05700961892133</v>
+        <v>19.00793810844169</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.03319343997738</v>
+        <v>19.59066358829743</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.919695372220067</v>
+        <v>6.38962232704481</v>
       </c>
       <c r="C5">
-        <v>6.253566404863369</v>
+        <v>6.786537135112956</v>
       </c>
       <c r="D5">
-        <v>4.636644551483569</v>
+        <v>4.404725287460335</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.77990508580595</v>
+        <v>21.74398689699724</v>
       </c>
       <c r="G5">
-        <v>18.9716934209035</v>
+        <v>24.35460957943739</v>
       </c>
       <c r="H5">
-        <v>8.280836510114392</v>
+        <v>13.28044893827955</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.359534722887558</v>
+        <v>8.066555654247253</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.45208592571229</v>
+        <v>18.85792650730504</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.04709629100739</v>
+        <v>19.60960350247923</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.892231383524807</v>
+        <v>6.377404839228422</v>
       </c>
       <c r="C6">
-        <v>6.253384841908473</v>
+        <v>6.786124749310584</v>
       </c>
       <c r="D6">
-        <v>4.627756650529751</v>
+        <v>4.401129763166075</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.77040903172422</v>
+        <v>21.74575798950898</v>
       </c>
       <c r="G6">
-        <v>18.96194668158994</v>
+        <v>24.35725916334712</v>
       </c>
       <c r="H6">
-        <v>8.284257793585223</v>
+        <v>13.2824653489227</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.34308532758725</v>
+        <v>8.059277113918803</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.3507983762128</v>
+        <v>18.83301973544559</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.04957255960548</v>
+        <v>19.61281107833718</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.08111713698402</v>
+        <v>6.461770728655673</v>
       </c>
       <c r="C7">
-        <v>6.254672262998071</v>
+        <v>6.789016096199149</v>
       </c>
       <c r="D7">
-        <v>4.689002274755619</v>
+        <v>4.425959946914896</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.83755363222831</v>
+        <v>21.73398519281687</v>
       </c>
       <c r="G7">
-        <v>19.03164662082537</v>
+        <v>24.33960337839829</v>
       </c>
       <c r="H7">
-        <v>8.260923602032486</v>
+        <v>13.26864802555586</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.456483066479212</v>
+        <v>8.109552968765033</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.04890729266357</v>
+        <v>19.00591499693682</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.03336961061283</v>
+        <v>19.59091481926686</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.87085088747225</v>
+        <v>6.822481993686577</v>
       </c>
       <c r="C8">
-        <v>6.260807218647366</v>
+        <v>6.802476991420743</v>
       </c>
       <c r="D8">
-        <v>4.947869239225066</v>
+        <v>4.532292919248945</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.16465656138625</v>
+        <v>21.69493879048071</v>
       </c>
       <c r="G8">
-        <v>19.39113690456629</v>
+        <v>24.27995535804337</v>
       </c>
       <c r="H8">
-        <v>8.168465708556983</v>
+        <v>13.21209903824632</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.936823366826387</v>
+        <v>8.32509850611142</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.01257504349171</v>
+        <v>19.7674495233114</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.98717965873265</v>
+        <v>19.50341048284109</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.25741190855725</v>
+        <v>7.481940355591249</v>
       </c>
       <c r="C9">
-        <v>6.27194128100292</v>
+        <v>6.831262640533452</v>
       </c>
       <c r="D9">
-        <v>5.411527677418793</v>
+        <v>4.728262003596139</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>16.91941373459975</v>
+        <v>21.66492819940611</v>
       </c>
       <c r="G9">
-        <v>20.29361824591079</v>
+        <v>24.22920419161006</v>
       </c>
       <c r="H9">
-        <v>8.027861431292299</v>
+        <v>13.11710840280199</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.79983319797231</v>
+        <v>8.722933300723781</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.46427903135564</v>
+        <v>21.23982844995322</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.99682631016504</v>
+        <v>19.36475155589453</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.17383492048186</v>
+        <v>7.983069072389217</v>
       </c>
       <c r="C10">
-        <v>6.276457836369809</v>
+        <v>6.853747483971909</v>
       </c>
       <c r="D10">
-        <v>5.722966913921717</v>
+        <v>4.863841776517855</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.54513364398783</v>
+        <v>21.67137028969308</v>
       </c>
       <c r="G10">
-        <v>21.08630722372904</v>
+        <v>24.23270788850866</v>
       </c>
       <c r="H10">
-        <v>7.952321134792164</v>
+        <v>13.05701423204285</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.37998804820199</v>
+        <v>8.998314751500097</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.32380375983822</v>
+        <v>22.29597179208946</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.07392929929105</v>
+        <v>19.28310149965978</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.56784444361551</v>
+        <v>8.206771477333318</v>
       </c>
       <c r="C11">
-        <v>6.276762840564302</v>
+        <v>6.864240596720784</v>
       </c>
       <c r="D11">
-        <v>5.857820770368432</v>
+        <v>4.923553309155041</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.84578612595333</v>
+        <v>21.68049439738698</v>
       </c>
       <c r="G11">
-        <v>21.47712304719693</v>
+        <v>24.24322072677658</v>
       </c>
       <c r="H11">
-        <v>7.924677480344053</v>
+        <v>13.03178154251733</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.63095627216819</v>
+        <v>9.119587781364668</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.07014560944433</v>
+        <v>22.76850178008058</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.1262421653738</v>
+        <v>19.25037722834395</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.71369205435054</v>
+        <v>8.289686105981081</v>
       </c>
       <c r="C12">
-        <v>6.276517442445879</v>
+        <v>6.86824989176986</v>
       </c>
       <c r="D12">
-        <v>5.907862937107855</v>
+        <v>4.945870986780098</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.96199834667551</v>
+        <v>21.68483923439694</v>
       </c>
       <c r="G12">
-        <v>21.62965779576233</v>
+        <v>24.24848686336804</v>
       </c>
       <c r="H12">
-        <v>7.915237052492727</v>
+        <v>13.02252928631489</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.72401311410307</v>
+        <v>9.164910227473046</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.73259742553279</v>
+        <v>22.94612397224047</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.14870931642559</v>
+        <v>19.2386231024474</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.68243156219373</v>
+        <v>8.271909122103658</v>
       </c>
       <c r="C13">
-        <v>6.276588440555717</v>
+        <v>6.867384863338668</v>
       </c>
       <c r="D13">
-        <v>5.897131743321856</v>
+        <v>4.941077713752655</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.93686371901143</v>
+        <v>21.68386394788561</v>
       </c>
       <c r="G13">
-        <v>21.59660112516379</v>
+        <v>24.24729552357722</v>
       </c>
       <c r="H13">
-        <v>7.91722350977168</v>
+        <v>13.02450845421764</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.70406175471101</v>
+        <v>9.155176350600041</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.58982778049986</v>
+        <v>22.90793095173935</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.14374945090565</v>
+        <v>19.24112615766343</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.57991107650091</v>
+        <v>8.213629015197697</v>
       </c>
       <c r="C14">
-        <v>6.276750627231979</v>
+        <v>6.8645697398179</v>
       </c>
       <c r="D14">
-        <v>5.861958556463621</v>
+        <v>4.925395347888837</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.85529921711492</v>
+        <v>21.68083402620757</v>
       </c>
       <c r="G14">
-        <v>21.48957987716721</v>
+        <v>24.24362820903766</v>
       </c>
       <c r="H14">
-        <v>7.923879855028913</v>
+        <v>13.03101428380601</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.63865251983379</v>
+        <v>9.123328673252503</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.12460597950653</v>
+        <v>22.78314216202013</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.12803622738953</v>
+        <v>19.24939741235879</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.51667522292039</v>
+        <v>8.177696298969803</v>
       </c>
       <c r="C15">
-        <v>6.276799177669597</v>
+        <v>6.862849987346284</v>
       </c>
       <c r="D15">
-        <v>5.840279245946368</v>
+        <v>4.91575086388815</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.80564833254575</v>
+        <v>21.67909394074268</v>
       </c>
       <c r="G15">
-        <v>21.42462424156235</v>
+        <v>24.24154928957893</v>
       </c>
       <c r="H15">
-        <v>7.928092750522127</v>
+        <v>13.03503873376942</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.59832592172194</v>
+        <v>9.103742044398977</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.83988027816964</v>
+        <v>22.7065292745365</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.11876299867183</v>
+        <v>19.25454693160598</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.14761976676214</v>
+        <v>7.968199126984508</v>
       </c>
       <c r="C16">
-        <v>6.276394050787276</v>
+        <v>6.853066865608362</v>
       </c>
       <c r="D16">
-        <v>5.714013033110191</v>
+        <v>4.859898975164074</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>17.52581202938309</v>
+        <v>21.67089858105373</v>
       </c>
       <c r="G16">
-        <v>21.06139038480968</v>
+        <v>24.23220058047945</v>
       </c>
       <c r="H16">
-        <v>7.954268113555228</v>
+        <v>13.0587056114277</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.36331645925925</v>
+        <v>8.990306537430817</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.20968567288558</v>
+        <v>22.26491609385507</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.0708724150019</v>
+        <v>19.28532923457212</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.91531336232456</v>
+        <v>7.836498477056689</v>
       </c>
       <c r="C17">
-        <v>6.275628901933864</v>
+        <v>6.847131405598385</v>
       </c>
       <c r="D17">
-        <v>5.634776089658539</v>
+        <v>4.825124239410237</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>17.35827763202319</v>
+        <v>21.66745694509444</v>
       </c>
       <c r="G17">
-        <v>20.84642519166027</v>
+        <v>24.22875215431339</v>
       </c>
       <c r="H17">
-        <v>7.972089734951192</v>
+        <v>13.07376361430489</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.21575063923307</v>
+        <v>8.919674147862802</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.20878497389338</v>
+        <v>21.99184241457897</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.04603184354377</v>
+        <v>19.30534669021458</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.77954797361422</v>
+        <v>7.759585142770427</v>
       </c>
       <c r="C18">
-        <v>6.275032167778533</v>
+        <v>6.843742532656467</v>
       </c>
       <c r="D18">
-        <v>5.588561738136908</v>
+        <v>4.804938461808146</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.26341861044856</v>
+        <v>21.66606048152606</v>
       </c>
       <c r="G18">
-        <v>20.72561372908217</v>
+        <v>24.22760814716939</v>
       </c>
       <c r="H18">
-        <v>7.98296892628788</v>
+        <v>13.08262264805069</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.12966370708104</v>
+        <v>8.878673252312986</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.63202810108285</v>
+        <v>21.8340421089606</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.03335551169347</v>
+        <v>19.31727597519237</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.73321291622093</v>
+        <v>7.733344587955944</v>
       </c>
       <c r="C19">
-        <v>6.274806067487295</v>
+        <v>6.842599489332522</v>
       </c>
       <c r="D19">
-        <v>5.572805798006588</v>
+        <v>4.798072612800079</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>17.23155753678795</v>
+        <v>21.6656878199746</v>
       </c>
       <c r="G19">
-        <v>20.68518989597709</v>
+        <v>24.22736487560834</v>
       </c>
       <c r="H19">
-        <v>7.986758585358017</v>
+        <v>13.08565617714836</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.10031150530424</v>
+        <v>8.864727465581728</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.43649976895536</v>
+        <v>21.78049296830377</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.02933500594941</v>
+        <v>19.32138635988986</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.94026562037511</v>
+        <v>7.8506387138571</v>
       </c>
       <c r="C20">
-        <v>6.275727259285772</v>
+        <v>6.847760669644748</v>
       </c>
       <c r="D20">
-        <v>5.643277468625388</v>
+        <v>4.828845224870416</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.37595610884286</v>
+        <v>21.66776297095271</v>
       </c>
       <c r="G20">
-        <v>20.86901433254143</v>
+        <v>24.22903234298813</v>
       </c>
       <c r="H20">
-        <v>7.970127093103583</v>
+        <v>13.07214016341039</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.2315854057415</v>
+        <v>8.92723209251729</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.3154268761094</v>
+        <v>22.02098903391805</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.04850814323816</v>
+        <v>19.30317274893974</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.61011547045366</v>
+        <v>8.230796186526627</v>
       </c>
       <c r="C21">
-        <v>6.276713817599415</v>
+        <v>6.865395656947983</v>
       </c>
       <c r="D21">
-        <v>5.872317933040792</v>
+        <v>4.930009698485078</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.87919199935207</v>
+        <v>21.68169985174364</v>
       </c>
       <c r="G21">
-        <v>21.52088957932836</v>
+        <v>24.24467049620224</v>
       </c>
       <c r="H21">
-        <v>7.921896334028859</v>
+        <v>13.02909514402028</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.65791954106582</v>
+        <v>9.132699616629539</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.26119817818042</v>
+        <v>22.81983265493885</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.13257797799693</v>
+        <v>19.24695061448469</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.02830341264678</v>
+        <v>8.468773004461493</v>
       </c>
       <c r="C22">
-        <v>6.275177928822541</v>
+        <v>6.877128634031708</v>
       </c>
       <c r="D22">
-        <v>6.016016048419068</v>
+        <v>4.994409415517992</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.22189886062882</v>
+        <v>21.69599346217299</v>
       </c>
       <c r="G22">
-        <v>21.97352635884024</v>
+        <v>24.26238192805654</v>
       </c>
       <c r="H22">
-        <v>7.89639470364384</v>
+        <v>13.00272787170531</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.92494681679496</v>
+        <v>9.263470639137394</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.1948744753938</v>
+        <v>23.33419052798705</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.20310432768871</v>
+        <v>19.2139251113945</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.80692702254652</v>
+        <v>8.342724297698052</v>
       </c>
       <c r="C23">
-        <v>6.276242541649565</v>
+        <v>6.87084829291358</v>
       </c>
       <c r="D23">
-        <v>5.939885645973477</v>
+        <v>4.960198732605446</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.03769925830985</v>
+        <v>21.68789077172912</v>
       </c>
       <c r="G23">
-        <v>21.72943408781834</v>
+        <v>24.25224310530993</v>
       </c>
       <c r="H23">
-        <v>7.9094336736096</v>
+        <v>13.01663900456811</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.78353530284179</v>
+        <v>9.194005275118467</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.16103301858058</v>
+        <v>23.06042945325657</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.16397497443366</v>
+        <v>19.23121038387439</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.92899158134474</v>
+        <v>7.844249639303605</v>
       </c>
       <c r="C24">
-        <v>6.275683272664908</v>
+        <v>6.847476105992971</v>
       </c>
       <c r="D24">
-        <v>5.639436047688731</v>
+        <v>4.827163568623036</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.36795912995486</v>
+        <v>21.66762280324765</v>
       </c>
       <c r="G24">
-        <v>20.85879315288967</v>
+        <v>24.22890305804275</v>
       </c>
       <c r="H24">
-        <v>7.971012435495031</v>
+        <v>13.07287349642959</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.2244303907138</v>
+        <v>8.923816369086891</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.26721837974868</v>
+        <v>22.00781434614303</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.0473836227594</v>
+        <v>19.30415427670754</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.90004237274919</v>
+        <v>7.309178567555392</v>
       </c>
       <c r="C25">
-        <v>6.269306611173279</v>
+        <v>6.82323196024339</v>
       </c>
       <c r="D25">
-        <v>5.291060754950982</v>
+        <v>4.676670812115024</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>16.7028812029327</v>
+        <v>21.66804824165675</v>
       </c>
       <c r="G25">
-        <v>20.02736071063665</v>
+        <v>24.23579563805901</v>
       </c>
       <c r="H25">
-        <v>8.061247664480668</v>
+        <v>13.14110337875124</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.57542003616691</v>
+        <v>8.618157827501676</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.02130014078571</v>
+        <v>20.84514502451109</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.98258517528124</v>
+        <v>19.39872123832938</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_87/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_87/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.917169992021162</v>
+        <v>11.0740024508657</v>
       </c>
       <c r="C2">
-        <v>6.806290309034241</v>
+        <v>6.262502763809903</v>
       </c>
       <c r="D2">
-        <v>4.560284049730241</v>
+        <v>5.015128458949889</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.68750424701895</v>
+        <v>16.26087034337071</v>
       </c>
       <c r="G2">
-        <v>24.26825617323693</v>
+        <v>19.5015510320683</v>
       </c>
       <c r="H2">
-        <v>13.19785320135738</v>
+        <v>8.146066056720727</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.381888689455606</v>
+        <v>10.06185067608716</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97288045019196</v>
+        <v>29.78897223330418</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.48192466483431</v>
+        <v>12.98112672426084</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.639050935440197</v>
+        <v>10.47261381309755</v>
       </c>
       <c r="C3">
-        <v>6.795415270960925</v>
+        <v>6.257590755868418</v>
       </c>
       <c r="D3">
-        <v>4.478172084062789</v>
+        <v>4.816790817329643</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.71259478648555</v>
+        <v>15.99036934594608</v>
       </c>
       <c r="G3">
-        <v>24.30719758079749</v>
+        <v>19.19606163990327</v>
       </c>
       <c r="H3">
-        <v>13.24037575981718</v>
+        <v>8.214041538027946</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.215348006471942</v>
+        <v>9.693409859383133</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.37585180230192</v>
+        <v>27.50817971495099</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.54673329719562</v>
+        <v>13.00604963480814</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.462751919658459</v>
+        <v>10.0833036464295</v>
       </c>
       <c r="C4">
-        <v>6.789050318798203</v>
+        <v>6.254687675825545</v>
       </c>
       <c r="D4">
-        <v>4.426248764577132</v>
+        <v>4.689712846267716</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.73385448644175</v>
+        <v>15.83835601167348</v>
       </c>
       <c r="G4">
-        <v>24.33940674518097</v>
+        <v>19.03249002914797</v>
       </c>
       <c r="H4">
-        <v>13.26848876668649</v>
+        <v>8.260656185237799</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.110137913184863</v>
+        <v>9.457799331422537</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.00793810844169</v>
+        <v>26.0570096189213</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.59066358829743</v>
+        <v>13.03319343997733</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.38962232704481</v>
+        <v>9.919695372220097</v>
       </c>
       <c r="C5">
-        <v>6.786537135112956</v>
+        <v>6.253566404863226</v>
       </c>
       <c r="D5">
-        <v>4.404725287460335</v>
+        <v>4.636644551483666</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.74398689699724</v>
+        <v>15.77990508580593</v>
       </c>
       <c r="G5">
-        <v>24.35460957943739</v>
+        <v>18.97169342090356</v>
       </c>
       <c r="H5">
-        <v>13.28044893827955</v>
+        <v>8.280836510114392</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.066555654247253</v>
+        <v>9.359534722887574</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.85792650730504</v>
+        <v>25.4520859257123</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.60960350247923</v>
+        <v>13.04709629100741</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.377404839228422</v>
+        <v>9.892231383524878</v>
       </c>
       <c r="C6">
-        <v>6.786124749310584</v>
+        <v>6.25338484190835</v>
       </c>
       <c r="D6">
-        <v>4.401129763166075</v>
+        <v>4.627756650529963</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.74575798950898</v>
+        <v>15.770409031724</v>
       </c>
       <c r="G6">
-        <v>24.35725916334712</v>
+        <v>18.96194668158975</v>
       </c>
       <c r="H6">
-        <v>13.2824653489227</v>
+        <v>8.284257793585169</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.059277113918803</v>
+        <v>9.343085327587298</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.83301973544559</v>
+        <v>25.35079837621285</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.61281107833718</v>
+        <v>13.04957255960535</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.461770728655673</v>
+        <v>10.08111713698409</v>
       </c>
       <c r="C7">
-        <v>6.789016096199149</v>
+        <v>6.254672262998076</v>
       </c>
       <c r="D7">
-        <v>4.425959946914896</v>
+        <v>4.689002274755667</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.73398519281687</v>
+        <v>15.83755363222813</v>
       </c>
       <c r="G7">
-        <v>24.33960337839829</v>
+        <v>19.03164662082495</v>
       </c>
       <c r="H7">
-        <v>13.26864802555586</v>
+        <v>8.260923602032477</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.109552968765033</v>
+        <v>9.456483066479269</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.00591499693682</v>
+        <v>26.04890729266362</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.59091481926686</v>
+        <v>13.03336961061266</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.822481993686577</v>
+        <v>10.87085088747224</v>
       </c>
       <c r="C8">
-        <v>6.802476991420743</v>
+        <v>6.260807218647479</v>
       </c>
       <c r="D8">
-        <v>4.532292919248945</v>
+        <v>4.947869239225083</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.69493879048071</v>
+        <v>16.1646565613862</v>
       </c>
       <c r="G8">
-        <v>24.27995535804337</v>
+        <v>19.39113690456618</v>
       </c>
       <c r="H8">
-        <v>13.21209903824632</v>
+        <v>8.168465708556875</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.32509850611142</v>
+        <v>9.936823366826379</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.7674495233114</v>
+        <v>29.01257504349173</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.50341048284109</v>
+        <v>12.98717965873259</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.481940355591249</v>
+        <v>12.25741190855742</v>
       </c>
       <c r="C9">
-        <v>6.831262640533452</v>
+        <v>6.271941281002803</v>
       </c>
       <c r="D9">
-        <v>4.728262003596139</v>
+        <v>5.411527677418793</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.66492819940611</v>
+        <v>16.91941373459975</v>
       </c>
       <c r="G9">
-        <v>24.22920419161006</v>
+        <v>20.2936182459108</v>
       </c>
       <c r="H9">
-        <v>13.11710840280199</v>
+        <v>8.02786143129229</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.722933300723781</v>
+        <v>10.79983319797241</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.23982844995322</v>
+        <v>34.46427903135569</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.36475155589453</v>
+        <v>12.99682631016504</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.983069072389217</v>
+        <v>13.17383492048194</v>
       </c>
       <c r="C10">
-        <v>6.853747483971909</v>
+        <v>6.276457836369791</v>
       </c>
       <c r="D10">
-        <v>4.863841776517855</v>
+        <v>5.72296691392173</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.67137028969308</v>
+        <v>17.54513364398783</v>
       </c>
       <c r="G10">
-        <v>24.23270788850866</v>
+        <v>21.08630722372899</v>
       </c>
       <c r="H10">
-        <v>13.05701423204285</v>
+        <v>7.952321134792204</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.998314751500097</v>
+        <v>11.37998804820201</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.29597179208946</v>
+        <v>38.32380375983822</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.28310149965978</v>
+        <v>13.07392929929104</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.206771477333318</v>
+        <v>13.5678444436155</v>
       </c>
       <c r="C11">
-        <v>6.864240596720784</v>
+        <v>6.276762840564293</v>
       </c>
       <c r="D11">
-        <v>4.923553309155041</v>
+        <v>5.85782077036848</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.68049439738698</v>
+        <v>17.84578612595327</v>
       </c>
       <c r="G11">
-        <v>24.24322072677658</v>
+        <v>21.47712304719684</v>
       </c>
       <c r="H11">
-        <v>13.03178154251733</v>
+        <v>7.924677480344047</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.119587781364668</v>
+        <v>11.6309562721682</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.76850178008058</v>
+        <v>40.07014560944435</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.25037722834395</v>
+        <v>13.12624216537376</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.289686105981081</v>
+        <v>13.71369205435056</v>
       </c>
       <c r="C12">
-        <v>6.86824989176986</v>
+        <v>6.276517442445768</v>
       </c>
       <c r="D12">
-        <v>4.945870986780098</v>
+        <v>5.907862937107983</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.68483923439694</v>
+        <v>17.96199834667546</v>
       </c>
       <c r="G12">
-        <v>24.24848686336804</v>
+        <v>21.62965779576241</v>
       </c>
       <c r="H12">
-        <v>13.02252928631489</v>
+        <v>7.915237052492693</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.164910227473046</v>
+        <v>11.72401311410307</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.94612397224047</v>
+        <v>40.73259742553266</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.2386231024474</v>
+        <v>13.14870931642557</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.271909122103658</v>
+        <v>13.6824315621938</v>
       </c>
       <c r="C13">
-        <v>6.867384863338668</v>
+        <v>6.276588440555615</v>
       </c>
       <c r="D13">
-        <v>4.941077713752655</v>
+        <v>5.897131743321882</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.68386394788561</v>
+        <v>17.93686371901131</v>
       </c>
       <c r="G13">
-        <v>24.24729552357722</v>
+        <v>21.5966011251637</v>
       </c>
       <c r="H13">
-        <v>13.02450845421764</v>
+        <v>7.917223509771583</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.155176350600041</v>
+        <v>11.70406175471104</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.90793095173935</v>
+        <v>40.58982778049987</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.24112615766343</v>
+        <v>13.14374945090555</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.213629015197697</v>
+        <v>13.57991107650093</v>
       </c>
       <c r="C14">
-        <v>6.8645697398179</v>
+        <v>6.276750627232201</v>
       </c>
       <c r="D14">
-        <v>4.925395347888837</v>
+        <v>5.861958556463622</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.68083402620757</v>
+        <v>17.85529921711487</v>
       </c>
       <c r="G14">
-        <v>24.24362820903766</v>
+        <v>21.48957987716706</v>
       </c>
       <c r="H14">
-        <v>13.03101428380601</v>
+        <v>7.923879855028856</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.123328673252503</v>
+        <v>11.63865251983387</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.78314216202013</v>
+        <v>40.12460597950653</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.24939741235879</v>
+        <v>13.12803622738941</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.177696298969803</v>
+        <v>13.51667522292043</v>
       </c>
       <c r="C15">
-        <v>6.862849987346284</v>
+        <v>6.276799177669486</v>
       </c>
       <c r="D15">
-        <v>4.91575086388815</v>
+        <v>5.840279245946273</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.67909394074268</v>
+        <v>17.8056483325457</v>
       </c>
       <c r="G15">
-        <v>24.24154928957893</v>
+        <v>21.4246242415623</v>
       </c>
       <c r="H15">
-        <v>13.03503873376942</v>
+        <v>7.928092750522034</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.103742044398977</v>
+        <v>11.59832592172195</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.7065292745365</v>
+        <v>39.8398802781697</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.25454693160598</v>
+        <v>13.11876299867173</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.968199126984508</v>
+        <v>13.14761976676212</v>
       </c>
       <c r="C16">
-        <v>6.853066865608362</v>
+        <v>6.276394050787156</v>
       </c>
       <c r="D16">
-        <v>4.859898975164074</v>
+        <v>5.714013033110295</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.67089858105373</v>
+        <v>17.52581202938302</v>
       </c>
       <c r="G16">
-        <v>24.23220058047945</v>
+        <v>21.0613903848097</v>
       </c>
       <c r="H16">
-        <v>13.0587056114277</v>
+        <v>7.954268113555115</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.990306537430817</v>
+        <v>11.36331645925923</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.26491609385507</v>
+        <v>38.20968567288558</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.28532923457212</v>
+        <v>13.07087241500184</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.836498477056689</v>
+        <v>12.91531336232463</v>
       </c>
       <c r="C17">
-        <v>6.847131405598385</v>
+        <v>6.275628901933958</v>
       </c>
       <c r="D17">
-        <v>4.825124239410237</v>
+        <v>5.634776089658642</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.66745694509444</v>
+        <v>17.35827763202315</v>
       </c>
       <c r="G17">
-        <v>24.22875215431339</v>
+        <v>20.84642519166037</v>
       </c>
       <c r="H17">
-        <v>13.07376361430489</v>
+        <v>7.972089734951088</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.919674147862802</v>
+        <v>11.21575063923313</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.99184241457897</v>
+        <v>37.20878497389347</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.30534669021458</v>
+        <v>13.04603184354376</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.759585142770427</v>
+        <v>12.77954797361426</v>
       </c>
       <c r="C18">
-        <v>6.843742532656467</v>
+        <v>6.275032167778646</v>
       </c>
       <c r="D18">
-        <v>4.804938461808146</v>
+        <v>5.58856173813695</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.66606048152606</v>
+        <v>17.26341861044855</v>
       </c>
       <c r="G18">
-        <v>24.22760814716939</v>
+        <v>20.72561372908213</v>
       </c>
       <c r="H18">
-        <v>13.08262264805069</v>
+        <v>7.98296892628789</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.878673252312986</v>
+        <v>11.12966370708106</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.8340421089606</v>
+        <v>36.63202810108284</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.31727597519237</v>
+        <v>13.03335551169346</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.733344587955944</v>
+        <v>12.73321291622104</v>
       </c>
       <c r="C19">
-        <v>6.842599489332522</v>
+        <v>6.274806067487303</v>
       </c>
       <c r="D19">
-        <v>4.798072612800079</v>
+        <v>5.572805798006544</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.6656878199746</v>
+        <v>17.23155753678786</v>
       </c>
       <c r="G19">
-        <v>24.22736487560834</v>
+        <v>20.68518989597693</v>
       </c>
       <c r="H19">
-        <v>13.08565617714836</v>
+        <v>7.986758585357973</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.864727465581728</v>
+        <v>11.10031150530432</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.78049296830377</v>
+        <v>36.43649976895546</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.32138635988986</v>
+        <v>13.0293350059493</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.8506387138571</v>
+        <v>12.94026562037508</v>
       </c>
       <c r="C20">
-        <v>6.847760669644748</v>
+        <v>6.275727259285905</v>
       </c>
       <c r="D20">
-        <v>4.828845224870416</v>
+        <v>5.64327746862536</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.66776297095271</v>
+        <v>17.37595610884296</v>
       </c>
       <c r="G20">
-        <v>24.22903234298813</v>
+        <v>20.86901433254146</v>
       </c>
       <c r="H20">
-        <v>13.07214016341039</v>
+        <v>7.970127093103627</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.92723209251729</v>
+        <v>11.23158540574146</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.02098903391805</v>
+        <v>37.31542687610926</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.30317274893974</v>
+        <v>13.04850814323822</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.230796186526627</v>
+        <v>13.61011547045365</v>
       </c>
       <c r="C21">
-        <v>6.865395656947983</v>
+        <v>6.276713817599407</v>
       </c>
       <c r="D21">
-        <v>4.930009698485078</v>
+        <v>5.872317933040758</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.68169985174364</v>
+        <v>17.87919199935205</v>
       </c>
       <c r="G21">
-        <v>24.24467049620224</v>
+        <v>21.5208895793284</v>
       </c>
       <c r="H21">
-        <v>13.02909514402028</v>
+        <v>7.921896334028802</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.132699616629539</v>
+        <v>11.6579195410658</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.81983265493885</v>
+        <v>40.2611981781804</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.24695061448469</v>
+        <v>13.13257797799689</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.468773004461493</v>
+        <v>14.02830341264686</v>
       </c>
       <c r="C22">
-        <v>6.877128634031708</v>
+        <v>6.275177928822454</v>
       </c>
       <c r="D22">
-        <v>4.994409415517992</v>
+        <v>6.016016048419221</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.69599346217299</v>
+        <v>18.22189886062876</v>
       </c>
       <c r="G22">
-        <v>24.26238192805654</v>
+        <v>21.97352635884018</v>
       </c>
       <c r="H22">
-        <v>13.00272787170531</v>
+        <v>7.896394703643836</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.263470639137394</v>
+        <v>11.92494681679498</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.33419052798705</v>
+        <v>42.19487447539378</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.2139251113945</v>
+        <v>13.20310432768868</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.342724297698052</v>
+        <v>13.80692702254663</v>
       </c>
       <c r="C23">
-        <v>6.87084829291358</v>
+        <v>6.276242541649435</v>
       </c>
       <c r="D23">
-        <v>4.960198732605446</v>
+        <v>5.939885645973419</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.68789077172912</v>
+        <v>18.03769925830981</v>
       </c>
       <c r="G23">
-        <v>24.25224310530993</v>
+        <v>21.72943408781828</v>
       </c>
       <c r="H23">
-        <v>13.01663900456811</v>
+        <v>7.909433673609565</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.194005275118467</v>
+        <v>11.78353530284183</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.06042945325657</v>
+        <v>41.16103301858075</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.23121038387439</v>
+        <v>13.16397497443357</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.844249639303605</v>
+        <v>12.92899158134474</v>
       </c>
       <c r="C24">
-        <v>6.847476105992971</v>
+        <v>6.275683272664569</v>
       </c>
       <c r="D24">
-        <v>4.827163568623036</v>
+        <v>5.639436047688815</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.66762280324765</v>
+        <v>17.36795912995489</v>
       </c>
       <c r="G24">
-        <v>24.22890305804275</v>
+        <v>20.85879315288974</v>
       </c>
       <c r="H24">
-        <v>13.07287349642959</v>
+        <v>7.971012435495085</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.923816369086891</v>
+        <v>11.22443039071373</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.00781434614303</v>
+        <v>37.2672183797487</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.30415427670754</v>
+        <v>13.04738362275947</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.309178567555392</v>
+        <v>11.90004237274926</v>
       </c>
       <c r="C25">
-        <v>6.82323196024339</v>
+        <v>6.269306611173524</v>
       </c>
       <c r="D25">
-        <v>4.676670812115024</v>
+        <v>5.29106075495099</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.66804824165675</v>
+        <v>16.70288120293263</v>
       </c>
       <c r="G25">
-        <v>24.23579563805901</v>
+        <v>20.02736071063649</v>
       </c>
       <c r="H25">
-        <v>13.14110337875124</v>
+        <v>8.061247664480611</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.618157827501676</v>
+        <v>10.57542003616699</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.84514502451109</v>
+        <v>33.02130014078573</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.39872123832938</v>
+        <v>12.98258517528112</v>
       </c>
     </row>
   </sheetData>
